--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3356883.439969246</v>
+        <v>3354548.328767266</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.9524543521427</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>242.3919264555392</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>56.30830983498245</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>182.0127918820179</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>286.5888679426066</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.422775988213</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959145</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>169.8440990725225</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>342.2900945196229</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316074</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487896</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505467</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242268</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>126.6321535627889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289884</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506642</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2606,7 +2606,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576175</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.295034370327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523328</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412178</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>140.7158229532356</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1201.12525314008</v>
+        <v>880.6454412161688</v>
       </c>
       <c r="C2" t="n">
-        <v>832.1627361996682</v>
+        <v>880.6454412161688</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>880.6454412161688</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>2317.498998647086</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1964.730343376971</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X2" t="n">
-        <v>1591.264585115892</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y2" t="n">
-        <v>1201.12525314008</v>
+        <v>880.6454412161688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1565.661695681275</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167644</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888575</v>
+        <v>276.110331901121</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>276.110331901121</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>276.110331901121</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>276.110331901121</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>108.1238672093995</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1452.594815143166</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1163.476477647004</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>1163.476477647004</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>1163.476477647004</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X4" t="n">
-        <v>1163.476477647004</v>
+        <v>445.0465148290278</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>445.0465148290278</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854573</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>359.3403385450455</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>69.85663355251364</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.241398742976</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744476</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.1664670606423</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>275.8114993603219</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4753,22 +4753,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1268.257676201507</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1013.57318799562</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W7" t="n">
-        <v>724.1560179586596</v>
+        <v>672.7372331862462</v>
       </c>
       <c r="X7" t="n">
-        <v>496.1664670606423</v>
+        <v>444.7476822882288</v>
       </c>
       <c r="Y7" t="n">
-        <v>496.1664670606423</v>
+        <v>444.7476822882288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495404</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549923</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>758.7856865549923</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>758.7856865549923</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>751.8401858057888</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5063,28 +5063,28 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703773</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969296</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142549</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192275</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111685</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075781</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703773</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969296</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.355259300791</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,31 +5759,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.294644713842</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.294644713842</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015062</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191131</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212027</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>304.1788649360827</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,28 +6458,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6549,19 +6549,19 @@
         <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190824</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>268.7034100454488</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603287</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>923.4916164683287</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>754.5554335404219</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>606.6423399580287</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>459.7523924601184</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601776</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-6.439667049203219e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711692</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219408</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.206332874401</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>125.5054897610391</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.048756289224</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929555969</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109906</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310876971</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>24.80831533903321</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778544</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
         <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.939721005</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
         <v>726431.939721005</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26372,7 +26372,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756506</v>
+        <v>9337.200356756543</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675661</v>
+        <v>9337.200356756533</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756588</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756524</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.200356756563</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="L4" t="n">
-        <v>9337.200356756552</v>
-      </c>
       <c r="M4" t="n">
+        <v>9337.200356756573</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9337.200356756593</v>
+      </c>
+      <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="N4" t="n">
-        <v>9337.200356756533</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26476,10 +26476,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
+        <v>101122.5298239071</v>
+      </c>
+      <c r="F5" t="n">
         <v>101122.5298239072</v>
-      </c>
-      <c r="F5" t="n">
-        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-605478.2368300125</v>
+        <v>-605478.2368300124</v>
       </c>
       <c r="C6" t="n">
-        <v>509273.5467459074</v>
+        <v>509273.5467459076</v>
       </c>
       <c r="D6" t="n">
-        <v>349852.276748016</v>
+        <v>349852.2767480161</v>
       </c>
       <c r="E6" t="n">
-        <v>290559.7477329859</v>
+        <v>290525.0098075501</v>
       </c>
       <c r="F6" t="n">
-        <v>615972.2095403415</v>
+        <v>615937.4716149057</v>
       </c>
       <c r="G6" t="n">
-        <v>615972.209540342</v>
+        <v>615937.4716149061</v>
       </c>
       <c r="H6" t="n">
-        <v>615972.2095403419</v>
+        <v>615937.471614906</v>
       </c>
       <c r="I6" t="n">
-        <v>615972.2095403413</v>
+        <v>615937.4716149059</v>
       </c>
       <c r="J6" t="n">
-        <v>448367.031730359</v>
+        <v>448332.2938049231</v>
       </c>
       <c r="K6" t="n">
-        <v>615972.209540342</v>
+        <v>615937.471614906</v>
       </c>
       <c r="L6" t="n">
-        <v>567678.2395321507</v>
+        <v>567643.501606715</v>
       </c>
       <c r="M6" t="n">
-        <v>530917.1816048301</v>
+        <v>530882.443679394</v>
       </c>
       <c r="N6" t="n">
-        <v>615972.2095403414</v>
+        <v>615937.4716149063</v>
       </c>
       <c r="O6" t="n">
-        <v>615972.2095403414</v>
+        <v>615937.4716149063</v>
       </c>
       <c r="P6" t="n">
-        <v>615972.2095403417</v>
+        <v>615937.471614906</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>345.9779157201191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>85.36033201459571</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014639</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,22 +27585,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>38.73590411519402</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>68.0941736780764</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.308324690256</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697773</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27825,10 +27825,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>116.3830550486782</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>68.63163113383058</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.7856813609076</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>83.32522828944182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.674596803735689e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.140778185763784e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31789,10 +31789,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,31 +31841,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.285322933819</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>160.6314956130949</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
         <v>593.8732233669225</v>
@@ -32026,10 +32026,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>164.285322933819</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>641.255575077084</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32160,31 +32160,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860359</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897653</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>491.1355220041054</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817577</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676411</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.7309431539448</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>20.64972152707336</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.53969023631402</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394484</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>212.9340539717057</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>322.3705304098912</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36917,22 +36917,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>349.0014880820871</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
         <v>479.4543240367771</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
